--- a/biology/Médecine/Hermann_Askan_Demme/Hermann_Askan_Demme.xlsx
+++ b/biology/Médecine/Hermann_Askan_Demme/Hermann_Askan_Demme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Askan Demme, né le 28 août 1802 à Altenbourg, et mort le 18 janvier 1867 à Berne, est un médecin germano-suisse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hermann Askan Demme est le fils de Gottfried Hermann, Generalsuperintendent de Saxe-Altenbourg. Il étudie d'abord la philosophie et la théologie à Iéna et à Berlin. En 1822, il entre dans la Jenaischen Burschenschaft[2]. Il termine ses études en 1830 et devient l'assistant de Johann Lukas Schönlein. En 1831 il est médecin militaire à Warschau, et en 1832, il visite les Etats-Unis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hermann Askan Demme est le fils de Gottfried Hermann, Generalsuperintendent de Saxe-Altenbourg. Il étudie d'abord la philosophie et la théologie à Iéna et à Berlin. En 1822, il entre dans la Jenaischen Burschenschaft. Il termine ses études en 1830 et devient l'assistant de Johann Lukas Schönlein. En 1831 il est médecin militaire à Warschau, et en 1832, il visite les Etats-Unis.
 Il épouse en 1833 Marie Lucie Elisabeth Auguste Diruf (1808-1882) de Heidelberg. Le couple a une fille et trois fils. La même année, il devient professeur d'anatomie à l'Université de Zurich et 1834, il devient professeur à l'Université de Berne. 
 En 1847, il est le premier dans le monde germanophone à effectuer une intervention chirurgicale à l'aide de l'éther pour l'anesthésie.
 </t>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allgemeine Chirurgie der Schusswunden. Nach eigenen Erfahrungen in den norditalienischen Lazarethen von 1859 und mit Benutzung der bisherigen Leistungen, Bd. 1 von Militärchirurgische Studien, Würzburg 1863. en ligne
 Beiträge zur pathologischen Anatomie des Tétanos und einiger anderen Krankheiten des Nervensystems, Leipzig und Heidelberg 1859. en ligne
